--- a/TMA_supra_Experiment Plan_pilot.xlsx
+++ b/TMA_supra_Experiment Plan_pilot.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="2420" windowWidth="29920" windowHeight="22340" tabRatio="500"/>
+    <workbookView xWindow="5700" yWindow="3740" windowWidth="29920" windowHeight="22340" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Jar Numbers" sheetId="1" r:id="rId1"/>
@@ -697,6 +697,8 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -706,8 +708,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -991,7 +991,7 @@
   </sheetPr>
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -1018,13 +1018,13 @@
       <c r="D1" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="37"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="39"/>
     </row>
     <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
@@ -2016,7 +2016,7 @@
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C8"/>
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2782,7 +2782,7 @@
       <c r="A29" t="s">
         <v>96</v>
       </c>
-      <c r="D29" s="39">
+      <c r="D29" s="36">
         <v>42913</v>
       </c>
     </row>
@@ -2849,7 +2849,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="38">
+      <c r="A34" s="35">
         <v>0.125</v>
       </c>
       <c r="B34" s="14"/>
@@ -2865,7 +2865,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="38">
+      <c r="A35" s="35">
         <v>6.25E-2</v>
       </c>
       <c r="B35" s="14"/>
@@ -2881,7 +2881,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="38">
+      <c r="A36" s="35">
         <v>3.1199999999999999E-2</v>
       </c>
       <c r="B36" s="14"/>
@@ -2900,7 +2900,7 @@
       <c r="A38" t="s">
         <v>102</v>
       </c>
-      <c r="E38" s="39">
+      <c r="E38" s="36">
         <v>42913</v>
       </c>
     </row>
@@ -2950,8 +2950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3535,7 +3535,9 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -3544,7 +3546,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3553,134 +3555,136 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="14" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>3</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="14">
+        <v>3</v>
+      </c>
+      <c r="B2" s="14">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="14">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="14">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="14">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="14">
         <v>6</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="14">
         <v>0.6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="14">
         <v>7</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="14">
         <v>0.3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="14">
         <v>8</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="14">
         <v>0.1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" s="14">
         <v>27</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="14">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" s="14">
         <v>28</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="14">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" s="14">
         <v>30</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="14">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="A11" s="14">
         <v>31</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="14">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="A12" s="14">
         <v>32</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="14">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="A13" s="14">
         <v>2</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="A14" s="14">
         <v>22</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="A15" s="14">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="14" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="A16" s="14">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="14" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>